--- a/dev/test/tests.xlsx
+++ b/dev/test/tests.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Buccaneer\dev\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t xml:space="preserve">VERY EARLY DRAFT SPELLING GRAMMAR V BAD </t>
   </si>
@@ -378,13 +373,22 @@
   </si>
   <si>
     <t>Liam</t>
+  </si>
+  <si>
+    <t>Check that the program detects if the user is at anchor bay</t>
+  </si>
+  <si>
+    <t>The program should detect it</t>
+  </si>
+  <si>
+    <t>Josh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,13 +532,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -648,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -842,21 +846,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
@@ -866,19 +870,19 @@
     <col min="7" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -897,14 +901,14 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -919,12 +923,12 @@
         <v>4</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" thickBot="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -939,12 +943,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" thickBot="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -959,12 +963,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="39" thickBot="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -979,12 +983,12 @@
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" thickBot="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -999,12 +1003,12 @@
         <v>16</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="39" thickBot="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1019,12 +1023,12 @@
         <v>19</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" thickBot="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1039,12 +1043,12 @@
         <v>22</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" thickBot="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1059,12 +1063,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51.75" thickBot="1">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1079,12 +1083,12 @@
         <v>28</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" thickBot="1">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1099,12 +1103,12 @@
         <v>62</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="26.25" thickBot="1">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1119,12 +1123,12 @@
         <v>67</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="26.25" thickBot="1">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1139,12 +1143,12 @@
         <v>70</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="39" thickBot="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1161,12 +1165,12 @@
         <v>73</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="26.25" thickBot="1">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1181,12 +1185,12 @@
         <v>77</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="26.25" thickBot="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1203,12 +1207,12 @@
         <v>81</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1223,12 +1227,12 @@
         <v>84</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26.25" thickBot="1">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1245,12 +1249,12 @@
         <v>86</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="26.25" thickBot="1">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1267,12 +1271,12 @@
         <v>88</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1287,12 +1291,12 @@
         <v>94</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="26.25" thickBot="1">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1309,12 +1313,12 @@
         <v>98</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26.25" thickBot="1">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1331,12 +1335,12 @@
         <v>101</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="60.75" thickBot="1">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1353,12 +1357,12 @@
         <v>105</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45.75" thickBot="1">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1373,12 +1377,12 @@
         <v>108</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="45.75" thickBot="1">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1393,12 +1397,12 @@
         <v>111</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="64.5" thickBot="1">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1413,12 +1417,12 @@
         <v>31</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="64.5" thickBot="1">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1433,12 +1437,12 @@
         <v>34</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="51.75" thickBot="1">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1453,12 +1457,12 @@
         <v>37</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51.75" thickBot="1">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1473,12 +1477,12 @@
         <v>40</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="51.75" thickBot="1">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1493,12 +1497,12 @@
         <v>43</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="39" thickBot="1">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1513,28 +1517,32 @@
         <v>46</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="10"/>
+      <c r="H33" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1545,12 +1553,12 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1561,12 +1569,12 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="10"/>
+      <c r="H35" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="51.75" thickBot="1">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1581,12 +1589,12 @@
         <v>52</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="39" thickBot="1">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1601,12 +1609,12 @@
         <v>55</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51.75" thickBot="1">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1621,8 +1629,8 @@
         <v>58</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
         <v>117</v>
       </c>
     </row>

--- a/dev/test/tests.xlsx
+++ b/dev/test/tests.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\SSD STORAGE FILES\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
   <si>
     <t xml:space="preserve">VERY EARLY DRAFT SPELLING GRAMMAR V BAD </t>
   </si>
@@ -39,21 +44,9 @@
     <t>FR1:B</t>
   </si>
   <si>
-    <t>To see if you can play the game with only 2 players instead of the maximum 4.</t>
-  </si>
-  <si>
-    <t>I expect that the game will work as it should and that there should not be any issues with only playing with two players, instead of the maximum 4.</t>
-  </si>
-  <si>
     <t>FR1:C</t>
   </si>
   <si>
-    <t>Check that you are unable to use offensive words as your ID in the game.</t>
-  </si>
-  <si>
-    <t>I expect it will not allow the user to enter an offensive word and request the user to choose another ID because they are not allowed to use offensive word in the game.</t>
-  </si>
-  <si>
     <t>FR2:A</t>
   </si>
   <si>
@@ -93,12 +86,6 @@
     <t>FR3:B</t>
   </si>
   <si>
-    <t>Make sure that the amount of cards the player receives is the same even if there is not 4 players playing e.g. 2 or 3 users playing</t>
-  </si>
-  <si>
-    <t>I expect that it should still give out the correct amount of cards to each user no matter how many people are currently playing</t>
-  </si>
-  <si>
     <t>FR3:C</t>
   </si>
   <si>
@@ -382,13 +369,100 @@
   </si>
   <si>
     <t>Josh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check to see if you can enter forien characters for e.g. chinese characters. </t>
+  </si>
+  <si>
+    <t>The application should reject the foreign characters.</t>
+  </si>
+  <si>
+    <t>See what happens if you click play game then quickly try and exit the game.</t>
+  </si>
+  <si>
+    <t>The application should continue with the game as you clicked play first.</t>
+  </si>
+  <si>
+    <t>Each users ship shouldspawn in their predefined locations.</t>
+  </si>
+  <si>
+    <t>Check if all of the ships spawn in their proper locations</t>
+  </si>
+  <si>
+    <t>FR1:D</t>
+  </si>
+  <si>
+    <t>The game should  being with all users having their own port.</t>
+  </si>
+  <si>
+    <t>Check wether the users each have their own port upon the game starting</t>
+  </si>
+  <si>
+    <t>FR2:D</t>
+  </si>
+  <si>
+    <t>That each player should have a different port at the start of thegame</t>
+  </si>
+  <si>
+    <t>If that the assigning of the ports is randomised</t>
+  </si>
+  <si>
+    <t>FR2:F</t>
+  </si>
+  <si>
+    <t>You should be rewarded your oppenets tresure upon victory if you can carry it</t>
+  </si>
+  <si>
+    <t>Check that if you win in battle you get your oppennants treasure</t>
+  </si>
+  <si>
+    <t>FR2:E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that the amount of cards each player receives is the same </t>
+  </si>
+  <si>
+    <t>I expect that it should still give out the correct amount of cards</t>
+  </si>
+  <si>
+    <t>The card should be placed at the bottom of the deck.</t>
+  </si>
+  <si>
+    <t>When a crew card is returned to deck that it is placed at the bottom</t>
+  </si>
+  <si>
+    <t>FR3:D</t>
+  </si>
+  <si>
+    <t>The ship should be moved to the location on the card after the user recieves it from treasure island.</t>
+  </si>
+  <si>
+    <t>If a chance card received from treasure island makes your ship move to certain coords.</t>
+  </si>
+  <si>
+    <t>FR13:B</t>
+  </si>
+  <si>
+    <t>The user should receive the chance card at the top of the deck.</t>
+  </si>
+  <si>
+    <t>Check if a player ends their turn ajacent to treasure island they get a card from the chance card deck</t>
+  </si>
+  <si>
+    <t>FR13:A</t>
+  </si>
+  <si>
+    <t>The application should see that the user has the card and then proceed to trade if the user is at the required coords</t>
+  </si>
+  <si>
+    <t>Check if the user has the card that will trade for treasure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +484,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,64 +500,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,15 +518,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -505,40 +547,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,23 +883,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="4" width="42.140625" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" customWidth="1"/>
@@ -870,768 +907,922 @@
     <col min="7" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" thickBot="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" thickBot="1">
+      <c r="C4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="39" thickBot="1">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="39" thickBot="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="51.75" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" thickBot="1">
+      <c r="B10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" thickBot="1">
+      <c r="B11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" thickBot="1">
+      <c r="B12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" thickBot="1">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="39" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" thickBot="1">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="26.25" thickBot="1">
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60.75" thickBot="1">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45.75" thickBot="1">
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45.75" thickBot="1">
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="64.5" thickBot="1">
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="64.5" thickBot="1">
+        <v>89</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="51.75" thickBot="1">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51.75" thickBot="1">
+        <v>96</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="51.75" thickBot="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="39" thickBot="1">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="51.75" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="39" thickBot="1">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="51.75" thickBot="1">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
-        <v>117</v>
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
